--- a/teaching/traditional_assets/database/data/israel/israel_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03755</v>
+        <v>0.05435</v>
       </c>
       <c r="E2">
-        <v>-0.04092</v>
+        <v>0.0951</v>
       </c>
       <c r="G2">
-        <v>0.05196196384246732</v>
+        <v>0.01125035329728941</v>
       </c>
       <c r="H2">
-        <v>0.05196196384246732</v>
+        <v>0.01125035329728941</v>
       </c>
       <c r="I2">
-        <v>-0.0009273555442252495</v>
+        <v>0.02737894439328599</v>
       </c>
       <c r="J2">
-        <v>-0.0007213256686419162</v>
+        <v>0.02190531605235816</v>
       </c>
       <c r="K2">
-        <v>-138.15</v>
+        <v>260.32</v>
       </c>
       <c r="L2">
-        <v>-0.005521957926797585</v>
+        <v>0.01186714198448227</v>
       </c>
       <c r="M2">
-        <v>330.55</v>
+        <v>30.6006</v>
       </c>
       <c r="N2">
-        <v>0.0468805400728985</v>
+        <v>0.003785563184264242</v>
       </c>
       <c r="O2">
-        <v>-2.392689106044155</v>
+        <v>0.117549938537185</v>
       </c>
       <c r="P2">
-        <v>330.55</v>
+        <v>30.6006</v>
       </c>
       <c r="Q2">
-        <v>0.0468805400728985</v>
+        <v>0.003785563184264242</v>
       </c>
       <c r="R2">
-        <v>-2.392689106044155</v>
+        <v>0.117549938537185</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>12557.5</v>
+        <v>11807.2</v>
       </c>
       <c r="V2">
-        <v>1.780978314825058</v>
+        <v>1.460654419496505</v>
       </c>
       <c r="W2">
-        <v>0.04309070495362977</v>
+        <v>0.06204460762437252</v>
       </c>
       <c r="X2">
-        <v>0.0796698314278558</v>
+        <v>0.07413145905678654</v>
       </c>
       <c r="Y2">
-        <v>-0.03657912647422604</v>
+        <v>-0.01208685143241402</v>
       </c>
       <c r="Z2">
-        <v>1.962211251737981</v>
+        <v>6.374393397843837</v>
       </c>
       <c r="AA2">
-        <v>0.05991058497664763</v>
+        <v>0.03814689518930311</v>
       </c>
       <c r="AB2">
-        <v>0.05064743044281517</v>
+        <v>0.0482335428836895</v>
       </c>
       <c r="AC2">
-        <v>0.009314104610726934</v>
+        <v>-0.009435493247282777</v>
       </c>
       <c r="AD2">
-        <v>7803</v>
+        <v>9635.6</v>
       </c>
       <c r="AE2">
-        <v>120.9542960604525</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>7923.954296060452</v>
+        <v>9635.6</v>
       </c>
       <c r="AG2">
-        <v>-4633.545703939548</v>
+        <v>-2171.599999999999</v>
       </c>
       <c r="AH2">
-        <v>0.5291506774890669</v>
+        <v>0.5437973711983115</v>
       </c>
       <c r="AI2">
-        <v>0.4807421231750302</v>
+        <v>0.4913916200889396</v>
       </c>
       <c r="AJ2">
-        <v>-1.916783862212837</v>
+        <v>-0.3673269168964289</v>
       </c>
       <c r="AK2">
-        <v>-1.180444718852984</v>
+        <v>-0.2783531583264969</v>
       </c>
       <c r="AL2">
-        <v>293.41</v>
+        <v>315.89</v>
       </c>
       <c r="AM2">
-        <v>293.41</v>
+        <v>315.89</v>
       </c>
       <c r="AN2">
-        <v>50.70504906101761</v>
+        <v>12.78388812970162</v>
       </c>
       <c r="AO2">
-        <v>-0.08247844313418089</v>
+        <v>1.901263097913831</v>
       </c>
       <c r="AP2">
-        <v>-30.10946587783188</v>
+        <v>-2.881137807968368</v>
       </c>
       <c r="AQ2">
-        <v>-0.08247844313418089</v>
+        <v>1.901263097913831</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Migdal Insurance and Financial Holdings Ltd. (TASE:MGDL)</t>
+          <t>I.D.I. Insurance Company Ltd. (TASE:IDIN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,43 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0107</v>
+        <v>0.0528</v>
+      </c>
+      <c r="E3">
+        <v>0.038</v>
       </c>
       <c r="G3">
-        <v>0.03775885076028401</v>
+        <v>0.1444391710172441</v>
       </c>
       <c r="H3">
-        <v>0.03775885076028401</v>
+        <v>0.1444391710172441</v>
       </c>
       <c r="I3">
-        <v>-0.05877992125335661</v>
+        <v>0.1309919316563835</v>
       </c>
       <c r="J3">
-        <v>-0.05877992125335661</v>
+        <v>0.08958462633711804</v>
       </c>
       <c r="K3">
-        <v>-225.1</v>
+        <v>56.9</v>
       </c>
       <c r="L3">
-        <v>-0.03708340884005205</v>
+        <v>0.0900174023097611</v>
       </c>
       <c r="M3">
-        <v>100.6</v>
+        <v>11.5983</v>
       </c>
       <c r="N3">
-        <v>0.1011360209108274</v>
+        <v>0.02609878487848785</v>
       </c>
       <c r="O3">
-        <v>-0.4469124833407374</v>
+        <v>0.2038365553602812</v>
       </c>
       <c r="P3">
-        <v>100.6</v>
+        <v>11.5983</v>
       </c>
       <c r="Q3">
-        <v>0.1011360209108274</v>
+        <v>0.02609878487848785</v>
       </c>
       <c r="R3">
-        <v>-0.4469124833407374</v>
+        <v>0.2038365553602812</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5268.4</v>
+        <v>173.4</v>
       </c>
       <c r="V3">
-        <v>5.296471297878757</v>
+        <v>0.3901890189018902</v>
       </c>
       <c r="W3">
-        <v>-0.1297331565903982</v>
+        <v>0.3323598130841122</v>
       </c>
       <c r="X3">
-        <v>0.08579591495299783</v>
+        <v>0.05774953340764578</v>
       </c>
       <c r="Y3">
-        <v>-0.2155290715433961</v>
+        <v>0.2746102796764664</v>
       </c>
       <c r="Z3">
-        <v>-24.08769841269842</v>
+        <v>2.518326693227092</v>
       </c>
       <c r="AA3">
-        <v>1.415873015873016</v>
+        <v>0.2256033558075391</v>
       </c>
       <c r="AB3">
-        <v>0.05063627450345187</v>
+        <v>0.04565371807906565</v>
       </c>
       <c r="AC3">
-        <v>1.365236741369564</v>
+        <v>0.1799496377284735</v>
       </c>
       <c r="AD3">
-        <v>1433.8</v>
+        <v>206.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1433.8</v>
+        <v>206.1</v>
       </c>
       <c r="AG3">
-        <v>-3834.599999999999</v>
+        <v>32.69999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.5904056001647107</v>
+        <v>0.3168332052267486</v>
       </c>
       <c r="AI3">
-        <v>0.4653683868873742</v>
+        <v>0.4748847926267281</v>
       </c>
       <c r="AJ3">
-        <v>1.350258811929997</v>
+        <v>0.06853909033745544</v>
       </c>
       <c r="AK3">
-        <v>1.753040138977782</v>
+        <v>0.1254796623177283</v>
       </c>
       <c r="AL3">
-        <v>47.8</v>
+        <v>6.99</v>
       </c>
       <c r="AM3">
-        <v>47.8</v>
+        <v>6.99</v>
       </c>
       <c r="AN3">
-        <v>-4.340902210112019</v>
+        <v>2.305369127516778</v>
       </c>
       <c r="AO3">
-        <v>-7.464435146443515</v>
+        <v>11.84549356223176</v>
       </c>
       <c r="AP3">
-        <v>11.6094459582198</v>
+        <v>0.3657718120805368</v>
       </c>
       <c r="AQ3">
-        <v>-7.464435146443515</v>
+        <v>11.84549356223176</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I.D.I. Insurance Company Ltd. (TASE:IDIN)</t>
+          <t>Menora Mivtachim Holdings Ltd (TASE:MMHD)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.08689999999999999</v>
+        <v>0.0389</v>
       </c>
       <c r="E4">
-        <v>0.0133</v>
+        <v>0.226</v>
       </c>
       <c r="G4">
-        <v>0.1247758517632995</v>
+        <v>0.07614659685863875</v>
       </c>
       <c r="H4">
-        <v>0.1247758517632995</v>
+        <v>0.07614659685863875</v>
       </c>
       <c r="I4">
-        <v>0.1137178720860729</v>
+        <v>0.101151832460733</v>
       </c>
       <c r="J4">
-        <v>0.07668206582561587</v>
+        <v>0.06743455497382199</v>
       </c>
       <c r="K4">
-        <v>47</v>
+        <v>153.8</v>
       </c>
       <c r="L4">
-        <v>0.07023311416616855</v>
+        <v>0.06441884816753927</v>
       </c>
       <c r="M4">
-        <v>27.3</v>
+        <v>14.6223</v>
       </c>
       <c r="N4">
-        <v>0.05099943956659817</v>
+        <v>0.01235200202736949</v>
       </c>
       <c r="O4">
-        <v>0.5808510638297872</v>
+        <v>0.09507347204161247</v>
       </c>
       <c r="P4">
-        <v>27.3</v>
+        <v>14.6223</v>
       </c>
       <c r="Q4">
-        <v>0.05099943956659817</v>
+        <v>0.01235200202736949</v>
       </c>
       <c r="R4">
-        <v>0.5808510638297872</v>
+        <v>0.09507347204161247</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>97.8</v>
+        <v>997.7</v>
       </c>
       <c r="V4">
-        <v>0.1827012889968242</v>
+        <v>0.8427943909444163</v>
       </c>
       <c r="W4">
-        <v>0.3266157053509381</v>
+        <v>0.1339254615116684</v>
       </c>
       <c r="X4">
-        <v>0.05882685444260419</v>
+        <v>0.05933990945906556</v>
       </c>
       <c r="Y4">
-        <v>0.2677888509083339</v>
+        <v>0.07458555205260284</v>
       </c>
       <c r="Z4">
-        <v>4.434724983432738</v>
+        <v>2.702320316921336</v>
       </c>
       <c r="AA4">
-        <v>0.3400638730980925</v>
+        <v>0.1822297679683079</v>
       </c>
       <c r="AB4">
-        <v>0.05070976685547342</v>
+        <v>0.04744940591246374</v>
       </c>
       <c r="AC4">
-        <v>0.2893541062426191</v>
+        <v>0.1347803620558441</v>
       </c>
       <c r="AD4">
-        <v>177.6</v>
+        <v>617.5</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>177.6</v>
+        <v>617.5</v>
       </c>
       <c r="AG4">
-        <v>79.8</v>
+        <v>-380.2</v>
       </c>
       <c r="AH4">
-        <v>0.2491232992004489</v>
+        <v>0.3428079720202076</v>
       </c>
       <c r="AI4">
-        <v>0.5091743119266056</v>
+        <v>0.3198818897637795</v>
       </c>
       <c r="AJ4">
-        <v>0.1297350024386279</v>
+        <v>-0.473120955699353</v>
       </c>
       <c r="AK4">
-        <v>0.3179282868525896</v>
+        <v>-0.4076337514742147</v>
       </c>
       <c r="AL4">
-        <v>6.77</v>
+        <v>16.4</v>
       </c>
       <c r="AM4">
-        <v>6.77</v>
+        <v>16.4</v>
       </c>
       <c r="AN4">
-        <v>2.134615384615385</v>
+        <v>2.23650851140891</v>
       </c>
       <c r="AO4">
-        <v>11.24076809453471</v>
+        <v>14.72560975609756</v>
       </c>
       <c r="AP4">
-        <v>0.9591346153846153</v>
+        <v>-1.377037305324158</v>
       </c>
       <c r="AQ4">
-        <v>11.24076809453471</v>
+        <v>14.72560975609756</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Menora Mivtachim Holdings Ltd (TASE:MMHD)</t>
+          <t>Zur Shamir Holdings Ltd (TASE:ZUR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,46 +993,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0333</v>
+        <v>0.0663</v>
       </c>
       <c r="E5">
-        <v>0.008159999999999999</v>
+        <v>0.0563</v>
       </c>
       <c r="G5">
-        <v>0.06457412001581993</v>
+        <v>0.2592723836522561</v>
       </c>
       <c r="H5">
-        <v>0.06457412001581993</v>
+        <v>0.2592723836522561</v>
       </c>
       <c r="I5">
-        <v>0.04886204292956531</v>
+        <v>0.2004488542404914</v>
       </c>
       <c r="J5">
-        <v>0.03169191221628536</v>
+        <v>0.1110514465019174</v>
       </c>
       <c r="K5">
-        <v>70.8</v>
+        <v>17.6</v>
       </c>
       <c r="L5">
-        <v>0.025455722144321</v>
+        <v>0.02078903850696905</v>
       </c>
       <c r="M5">
-        <v>28.7</v>
+        <v>4.38</v>
       </c>
       <c r="N5">
-        <v>0.03103038166288247</v>
+        <v>0.02505720823798627</v>
       </c>
       <c r="O5">
-        <v>0.4053672316384181</v>
+        <v>0.2488636363636363</v>
       </c>
       <c r="P5">
-        <v>28.7</v>
+        <v>4.38</v>
       </c>
       <c r="Q5">
-        <v>0.03103038166288247</v>
+        <v>0.02505720823798627</v>
       </c>
       <c r="R5">
-        <v>0.4053672316384181</v>
+        <v>0.2488636363636363</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1038,73 +1041,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>834.5</v>
+        <v>359.9</v>
       </c>
       <c r="V5">
-        <v>0.902259703751757</v>
+        <v>2.058924485125858</v>
       </c>
       <c r="W5">
-        <v>0.06722369920243068</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="X5">
-        <v>0.06573093504982494</v>
+        <v>0.4084662737012383</v>
       </c>
       <c r="Y5">
-        <v>0.001492764152605741</v>
+        <v>-0.2598176250525897</v>
       </c>
       <c r="Z5">
-        <v>3.586922878514315</v>
+        <v>0.4700199866755496</v>
       </c>
       <c r="AA5">
-        <v>0.1136764449924613</v>
+        <v>0.05219639940513172</v>
       </c>
       <c r="AB5">
-        <v>0.05068134011712562</v>
+        <v>0.05164156157026897</v>
       </c>
       <c r="AC5">
-        <v>0.06299510487533565</v>
+        <v>0.0005548378348627508</v>
       </c>
       <c r="AD5">
-        <v>569.6</v>
+        <v>2311.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>569.6</v>
+        <v>2311.2</v>
       </c>
       <c r="AG5">
-        <v>-264.9</v>
+        <v>1951.3</v>
       </c>
       <c r="AH5">
-        <v>0.3811308129809301</v>
+        <v>0.9296862429605792</v>
       </c>
       <c r="AI5">
-        <v>0.3310280699715233</v>
+        <v>0.8348202998013364</v>
       </c>
       <c r="AJ5">
-        <v>-0.4013636363636363</v>
+        <v>0.9177837354781053</v>
       </c>
       <c r="AK5">
-        <v>-0.2989167230873392</v>
+        <v>0.8101386697666694</v>
       </c>
       <c r="AL5">
-        <v>23.9</v>
+        <v>78.3</v>
       </c>
       <c r="AM5">
-        <v>23.9</v>
+        <v>78.3</v>
       </c>
       <c r="AN5">
-        <v>3.526934984520124</v>
+        <v>12.71986791414419</v>
       </c>
       <c r="AO5">
-        <v>5.686192468619248</v>
+        <v>2.167305236270753</v>
       </c>
       <c r="AP5">
-        <v>-1.640247678018576</v>
+        <v>10.73913043478261</v>
       </c>
       <c r="AQ5">
-        <v>5.686192468619248</v>
+        <v>2.167305236270753</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zur Shamir Holdings Ltd (TASE:ZUR)</t>
+          <t>Harel Insurance Investments &amp; Financial Services Ltd (TASE:HARL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1124,121 +1127,118 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.11</v>
+        <v>0.0599</v>
       </c>
       <c r="E6">
-        <v>0.314</v>
+        <v>0.0951</v>
       </c>
       <c r="G6">
-        <v>0.1832477885770449</v>
+        <v>-0.001105758006664261</v>
       </c>
       <c r="H6">
-        <v>0.1832477885770449</v>
+        <v>-0.001105758006664261</v>
       </c>
       <c r="I6">
-        <v>0.212624221906738</v>
+        <v>0.02474690663667042</v>
       </c>
       <c r="J6">
-        <v>0.1369731400544131</v>
+        <v>0.01755398707029753</v>
       </c>
       <c r="K6">
-        <v>26.7</v>
+        <v>129.2</v>
       </c>
       <c r="L6">
-        <v>0.02915802118597794</v>
+        <v>0.02742110066430375</v>
       </c>
       <c r="M6">
-        <v>3.45</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.01313285116102018</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.1292134831460674</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>3.45</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.01313285116102018</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.1292134831460674</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>384</v>
+        <v>1530</v>
       </c>
       <c r="V6">
-        <v>1.461743433574419</v>
+        <v>0.7751152540655555</v>
       </c>
       <c r="W6">
-        <v>0.2540437678401523</v>
+        <v>0.07333825282397684</v>
       </c>
       <c r="X6">
-        <v>0.2419745005360623</v>
+        <v>0.06793902155144013</v>
       </c>
       <c r="Y6">
-        <v>0.01206926730409</v>
+        <v>0.005399231272536706</v>
       </c>
       <c r="Z6">
-        <v>0.6293903361055743</v>
+        <v>2.244628650373969</v>
       </c>
       <c r="AA6">
-        <v>0.08620957065628296</v>
+        <v>0.03940218230628405</v>
       </c>
       <c r="AB6">
-        <v>0.05057235600802679</v>
+        <v>0.0459382406637743</v>
       </c>
       <c r="AC6">
-        <v>0.03563721464825617</v>
+        <v>-0.00653605835749025</v>
       </c>
       <c r="AD6">
-        <v>2066.8</v>
+        <v>1647.1</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2066.8</v>
+        <v>1647.1</v>
       </c>
       <c r="AG6">
-        <v>1682.8</v>
+        <v>117.0999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.8872290191028118</v>
+        <v>0.4548743441038387</v>
       </c>
       <c r="AI6">
-        <v>0.8278458703837218</v>
+        <v>0.4348090071539822</v>
       </c>
       <c r="AJ6">
-        <v>0.86497044461578</v>
+        <v>0.05600191296030603</v>
       </c>
       <c r="AK6">
-        <v>0.7965540092776673</v>
+        <v>0.05185775652096892</v>
       </c>
       <c r="AL6">
-        <v>80.2</v>
+        <v>61.9</v>
       </c>
       <c r="AM6">
-        <v>80.2</v>
+        <v>61.9</v>
       </c>
       <c r="AN6">
-        <v>9.979719942056979</v>
+        <v>11.22767552828902</v>
       </c>
       <c r="AO6">
-        <v>2.427680798004987</v>
+        <v>1.883683360258481</v>
       </c>
       <c r="AP6">
-        <v>8.125543215837761</v>
+        <v>0.7982276755282884</v>
       </c>
       <c r="AQ6">
-        <v>2.427680798004987</v>
+        <v>1.883683360258481</v>
       </c>
     </row>
     <row r="7">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ayalon Holdings Ltd (TASE:AYAL)</t>
+          <t>Migdal Insurance and Financial Holdings Ltd. (TASE:MGDL)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1258,28 +1258,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.00963</v>
-      </c>
-      <c r="E7">
-        <v>-0.364</v>
+        <v>0.0559</v>
       </c>
       <c r="G7">
-        <v>0.05459731087871792</v>
+        <v>-0.03189653572820218</v>
       </c>
       <c r="H7">
-        <v>0.05459731087871792</v>
+        <v>-0.03189653572820218</v>
       </c>
       <c r="I7">
-        <v>0.02077957354339264</v>
+        <v>-0.01499267066223814</v>
       </c>
       <c r="J7">
-        <v>0.01038978677169632</v>
+        <v>-0.01499267066223814</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>-107.2</v>
       </c>
       <c r="L7">
-        <v>0.002376748607904387</v>
+        <v>-0.01989126602712783</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1288,7 +1285,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1297,79 +1294,79 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>69.40000000000001</v>
+        <v>3380.2</v>
       </c>
       <c r="V7">
-        <v>0.7199170124481328</v>
+        <v>2.786644682605111</v>
       </c>
       <c r="W7">
-        <v>0.009181532004197272</v>
+        <v>-0.06519095110678667</v>
       </c>
       <c r="X7">
-        <v>0.09861472713369251</v>
+        <v>0.08482082871193589</v>
       </c>
       <c r="Y7">
-        <v>-0.08943319512949524</v>
+        <v>-0.1500117798187225</v>
       </c>
       <c r="Z7">
-        <v>3.23506151142355</v>
+        <v>-2.460642863665419</v>
       </c>
       <c r="AA7">
-        <v>0.0336115992970123</v>
+        <v>0.03689160807232216</v>
       </c>
       <c r="AB7">
-        <v>0.05062060472381461</v>
+        <v>0.04922653620939747</v>
       </c>
       <c r="AC7">
-        <v>-0.0170090054268023</v>
+        <v>-0.0123349281370753</v>
       </c>
       <c r="AD7">
-        <v>189.8</v>
+        <v>1757.1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>189.8</v>
+        <v>1757.1</v>
       </c>
       <c r="AG7">
-        <v>120.4</v>
+        <v>-1623.1</v>
       </c>
       <c r="AH7">
-        <v>0.6631726065688329</v>
+        <v>0.5915962425507558</v>
       </c>
       <c r="AI7">
-        <v>0.4740259740259741</v>
+        <v>0.4871361242029387</v>
       </c>
       <c r="AJ7">
-        <v>0.5553505535055351</v>
+        <v>3.957815167032432</v>
       </c>
       <c r="AK7">
-        <v>0.3637462235649547</v>
+        <v>-7.156525573192233</v>
       </c>
       <c r="AL7">
-        <v>9.34</v>
+        <v>51</v>
       </c>
       <c r="AM7">
-        <v>9.34</v>
+        <v>51</v>
       </c>
       <c r="AN7">
-        <v>9.989473684210527</v>
+        <v>-36.99157894736842</v>
       </c>
       <c r="AO7">
-        <v>1.638115631691649</v>
+        <v>-1.584313725490196</v>
       </c>
       <c r="AP7">
-        <v>6.336842105263158</v>
+        <v>34.17052631578947</v>
       </c>
       <c r="AQ7">
-        <v>1.638115631691649</v>
+        <v>-1.584313725490196</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1377,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Harel Insurance Investments &amp; Financial Services Ltd (TASE:HARL)</t>
+          <t>Ayalon Holdings Ltd (TASE:AYAL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1389,121 +1386,115 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0492</v>
-      </c>
-      <c r="E8">
-        <v>-0.217</v>
+        <v>0.00647</v>
       </c>
       <c r="G8">
-        <v>0.05447102081043174</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="H8">
-        <v>0.05447102081043174</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="I8">
-        <v>0.008687723594533141</v>
+        <v>-0.008137645842563875</v>
       </c>
       <c r="J8">
-        <v>0.008687723594533141</v>
+        <v>-0.008137645842563875</v>
       </c>
       <c r="K8">
-        <v>46.3</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="L8">
-        <v>0.008775254918312422</v>
+        <v>-0.01385319745975484</v>
       </c>
       <c r="M8">
-        <v>98.59999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.0589466132599988</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>2.129589632829374</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>98.59999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.0589466132599988</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>2.129589632829374</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>1268.2</v>
+        <v>75.7</v>
       </c>
       <c r="V8">
-        <v>0.7581754050337778</v>
+        <v>0.7328170377541143</v>
       </c>
       <c r="W8">
-        <v>0.02809636507069603</v>
+        <v>-0.04460294816928198</v>
       </c>
       <c r="X8">
-        <v>0.07432853985760052</v>
+        <v>0.09809031993235272</v>
       </c>
       <c r="Y8">
-        <v>-0.04623217478690449</v>
+        <v>-0.1426932681016347</v>
       </c>
       <c r="Z8">
-        <v>3.631097846016646</v>
+        <v>2.047475052918053</v>
       </c>
       <c r="AA8">
-        <v>0.03154597443089728</v>
+        <v>-0.01666162685213184</v>
       </c>
       <c r="AB8">
-        <v>0.05065740416129606</v>
+        <v>0.04970694463407399</v>
       </c>
       <c r="AC8">
-        <v>-0.01911142973039878</v>
+        <v>-0.06636857148620583</v>
       </c>
       <c r="AD8">
-        <v>1605.6</v>
+        <v>199.5</v>
       </c>
       <c r="AE8">
-        <v>16.25916385262118</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1621.859163852621</v>
+        <v>199.5</v>
       </c>
       <c r="AG8">
-        <v>353.6591638526211</v>
+        <v>123.8</v>
       </c>
       <c r="AH8">
-        <v>0.492284121544212</v>
+        <v>0.6588507265521796</v>
       </c>
       <c r="AI8">
-        <v>0.4790520813132135</v>
+        <v>0.4970104633781764</v>
       </c>
       <c r="AJ8">
-        <v>0.1745293579546015</v>
+        <v>0.5451343020695729</v>
       </c>
       <c r="AK8">
-        <v>0.1670284238452601</v>
+        <v>0.3801043905434449</v>
       </c>
       <c r="AL8">
-        <v>42.5</v>
+        <v>10.3</v>
       </c>
       <c r="AM8">
-        <v>42.5</v>
+        <v>10.3</v>
       </c>
       <c r="AN8">
-        <v>19.82466971231016</v>
+        <v>82.09876543209876</v>
       </c>
       <c r="AO8">
-        <v>0.96</v>
+        <v>-0.5349514563106795</v>
       </c>
       <c r="AP8">
-        <v>4.366701615663922</v>
+        <v>50.94650205761317</v>
       </c>
       <c r="AQ8">
-        <v>0.96</v>
+        <v>-0.5349514563106795</v>
       </c>
     </row>
     <row r="9">
@@ -1514,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Phoenix Holdings Ltd (TASE:PHOE)</t>
+          <t>Clal Insurance Enterprises Holdings Ltd. (TASE:CLIS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1523,121 +1514,115 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0418</v>
-      </c>
-      <c r="E9">
-        <v>-0.09</v>
+        <v>0.0008500000000000001</v>
       </c>
       <c r="G9">
-        <v>0.06303178816962766</v>
+        <v>-0.04341808334587032</v>
       </c>
       <c r="H9">
-        <v>0.06303178816962766</v>
+        <v>-0.04341808334587032</v>
       </c>
       <c r="I9">
-        <v>0.03324030585619313</v>
+        <v>-0.01459304949601324</v>
       </c>
       <c r="J9">
-        <v>0.02511387749079786</v>
+        <v>-0.01459304949601324</v>
       </c>
       <c r="K9">
-        <v>100.4</v>
+        <v>-74.2</v>
       </c>
       <c r="L9">
-        <v>0.02278038708506342</v>
+        <v>-0.02232586129080788</v>
       </c>
       <c r="M9">
-        <v>71.90000000000001</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.04644102829091849</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.7161354581673307</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>71.90000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.04644102829091849</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.7161354581673307</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>2663.2</v>
+        <v>1850.3</v>
       </c>
       <c r="V9">
-        <v>1.720191189768764</v>
+        <v>1.752343971967042</v>
       </c>
       <c r="W9">
-        <v>0.05808504483656349</v>
+        <v>-0.05720453318942256</v>
       </c>
       <c r="X9">
-        <v>0.05755755958416056</v>
+        <v>0.08032389656213296</v>
       </c>
       <c r="Y9">
-        <v>0.000527485252402933</v>
+        <v>-0.1375284297515555</v>
       </c>
       <c r="Z9">
-        <v>0.5342764665236207</v>
+        <v>5.096610949240914</v>
       </c>
       <c r="AA9">
-        <v>0.01341775372649057</v>
+        <v>-0.07437509584419569</v>
       </c>
       <c r="AB9">
-        <v>0.05071636660459976</v>
+        <v>0.04901767985491527</v>
       </c>
       <c r="AC9">
-        <v>-0.03729861287810918</v>
+        <v>-0.1233927756991109</v>
       </c>
       <c r="AD9">
-        <v>432.8</v>
+        <v>1356.8</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>432.8</v>
+        <v>1356.8</v>
       </c>
       <c r="AG9">
-        <v>-2230.4</v>
+        <v>-493.5</v>
       </c>
       <c r="AH9">
-        <v>0.2184755174154467</v>
+        <v>0.5623575247647864</v>
       </c>
       <c r="AI9">
-        <v>0.1876924411292771</v>
+        <v>0.4497033575287528</v>
       </c>
       <c r="AJ9">
-        <v>3.26942245675755</v>
+        <v>-0.8774893314366997</v>
       </c>
       <c r="AK9">
-        <v>6.242373355723485</v>
+        <v>-0.4229516626671238</v>
       </c>
       <c r="AL9">
-        <v>38.8</v>
+        <v>45.8</v>
       </c>
       <c r="AM9">
-        <v>38.8</v>
+        <v>45.8</v>
       </c>
       <c r="AN9">
-        <v>2.608800482218204</v>
+        <v>-40.26112759643917</v>
       </c>
       <c r="AO9">
-        <v>3.775773195876289</v>
+        <v>-1.058951965065502</v>
       </c>
       <c r="AP9">
-        <v>-13.44424352019288</v>
+        <v>14.64391691394659</v>
       </c>
       <c r="AQ9">
-        <v>3.775773195876289</v>
+        <v>-1.058951965065502</v>
       </c>
     </row>
     <row r="10">
@@ -1648,7 +1633,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clal Insurance Enterprises Holdings Ltd. (TASE:CLIS)</t>
+          <t>The Phoenix Holdings Ltd (TASE:PHOE)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1657,25 +1642,28 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.0066</v>
+        <v>0.0675</v>
+      </c>
+      <c r="E10">
+        <v>0.115</v>
       </c>
       <c r="G10">
-        <v>0.008288885685454809</v>
+        <v>0.01597621207539562</v>
       </c>
       <c r="H10">
-        <v>0.008288885685454809</v>
+        <v>0.01597621207539562</v>
       </c>
       <c r="I10">
-        <v>-0.06744967239478313</v>
+        <v>0.03144844269730874</v>
       </c>
       <c r="J10">
-        <v>-0.06744967239478313</v>
+        <v>0.02474098886740304</v>
       </c>
       <c r="K10">
-        <v>-206</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="L10">
-        <v>-0.04949305655662871</v>
+        <v>0.02358633202298155</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1684,7 +1672,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1693,79 +1681,79 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1972</v>
+        <v>3440</v>
       </c>
       <c r="V10">
-        <v>1.940944881889764</v>
+        <v>1.778329197684036</v>
       </c>
       <c r="W10">
-        <v>-0.1467027488961686</v>
+        <v>0.0507509624247682</v>
       </c>
       <c r="X10">
-        <v>0.08501112299811107</v>
+        <v>0.06688969537453159</v>
       </c>
       <c r="Y10">
-        <v>-0.2317138718942797</v>
+        <v>-0.01613873294976338</v>
       </c>
       <c r="Z10">
-        <v>6.022615130717361</v>
+        <v>-10.27816627816628</v>
       </c>
       <c r="AA10">
-        <v>-0.4062234175267499</v>
+        <v>-0.2542919974654292</v>
       </c>
       <c r="AB10">
-        <v>0.05063745672433428</v>
+        <v>0.04591436380976639</v>
       </c>
       <c r="AC10">
-        <v>-0.4568608742510842</v>
+        <v>-0.3002063612751956</v>
       </c>
       <c r="AD10">
-        <v>1327</v>
+        <v>1540.3</v>
       </c>
       <c r="AE10">
-        <v>104.6951322078313</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1431.695132207831</v>
+        <v>1540.3</v>
       </c>
       <c r="AG10">
-        <v>-540.3048677921688</v>
+        <v>-1899.7</v>
       </c>
       <c r="AH10">
-        <v>0.584915626692625</v>
+        <v>0.4432900682073272</v>
       </c>
       <c r="AI10">
-        <v>0.5217937430539134</v>
+        <v>0.420582693935505</v>
       </c>
       <c r="AJ10">
-        <v>-1.13582172952762</v>
+        <v>-54.74639769452443</v>
       </c>
       <c r="AK10">
-        <v>-0.7000625493018451</v>
+        <v>-8.545659019343232</v>
       </c>
       <c r="AL10">
-        <v>44.1</v>
+        <v>45.2</v>
       </c>
       <c r="AM10">
-        <v>44.1</v>
+        <v>45.2</v>
       </c>
       <c r="AN10">
-        <v>-5.683083511777302</v>
+        <v>11.11327561327561</v>
       </c>
       <c r="AO10">
-        <v>-6.27437641723356</v>
+        <v>2.761061946902655</v>
       </c>
       <c r="AP10">
-        <v>2.313939476625991</v>
+        <v>-13.70634920634921</v>
       </c>
       <c r="AQ10">
-        <v>-6.27437641723356</v>
+        <v>2.761061946902655</v>
       </c>
     </row>
   </sheetData>
